--- a/Mifos Automation Excels/Client/4659-DISB01JAN2015-RESCHEDULE-INTEREST-ON-REMAINDERLOAN-24-FORECLOSE.xlsx
+++ b/Mifos Automation Excels/Client/4659-DISB01JAN2015-RESCHEDULE-INTEREST-ON-REMAINDERLOAN-24-FORECLOSE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -466,7 +466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -660,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,8 +676,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,8 +783,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,8 +906,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1056,18 +1056,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
@@ -1105,15 +1105,16 @@
       <c r="M1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14">
@@ -1140,8 +1141,9 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -1177,15 +1179,16 @@
       <c r="M3" s="13">
         <v>0</v>
       </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1221,15 +1224,16 @@
       <c r="M4" s="13">
         <v>0</v>
       </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1265,15 +1269,16 @@
       <c r="M5" s="13">
         <v>0</v>
       </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1309,15 +1314,16 @@
       <c r="M6" s="13">
         <v>0</v>
       </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1353,15 +1359,16 @@
       <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1397,15 +1404,16 @@
       <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1441,15 +1449,16 @@
       <c r="M9" s="13">
         <v>0</v>
       </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1485,15 +1494,16 @@
       <c r="M10" s="13">
         <v>0</v>
       </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1529,15 +1539,16 @@
       <c r="M11" s="13">
         <v>0</v>
       </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1573,15 +1584,16 @@
       <c r="M12" s="13">
         <v>0</v>
       </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="13"/>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -1617,15 +1629,16 @@
       <c r="M13" s="13">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13">
-        <v>945.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13">
+        <v>945.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -1661,11 +1674,12 @@
       <c r="M14" s="13">
         <v>0</v>
       </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13">
+      <c r="N14" s="13"/>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13">
         <v>945.55</v>
       </c>
     </row>
